--- a/stm-unity/Assets/Resources/Localization/SUGAR Unity Localization.xlsx
+++ b/stm-unity/Assets/Resources/Localization/SUGAR Unity Localization.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="88">
   <si>
     <t>Key</t>
   </si>
@@ -266,13 +266,25 @@
   </si>
   <si>
     <t>Error: Unable to gather list of group members.</t>
+  </si>
+  <si>
+    <t>Risultati</t>
+  </si>
+  <si>
+    <t>Classifiche</t>
+  </si>
+  <si>
+    <t>Avanti</t>
+  </si>
+  <si>
+    <t>Precedente</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -285,6 +297,17 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -307,10 +330,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -618,7 +643,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomRight" activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -649,15 +674,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
+      <c r="C3" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -783,10 +808,10 @@
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>5</v>
@@ -794,10 +819,10 @@
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>5</v>
@@ -825,15 +850,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>5</v>
+      <c r="C19" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -869,15 +894,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>5</v>
+      <c r="C23" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -959,10 +984,10 @@
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>5</v>
@@ -970,54 +995,54 @@
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>5</v>
+      <c r="C33" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>5</v>
@@ -1025,10 +1050,10 @@
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>5</v>
@@ -1036,10 +1061,10 @@
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>5</v>
@@ -1047,10 +1072,10 @@
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>5</v>
@@ -1058,10 +1083,10 @@
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>5</v>
@@ -1069,16 +1094,20 @@
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A3:C41">
+    <sortCondition ref="A1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/stm-unity/Assets/Resources/Localization/SUGAR Unity Localization.xlsx
+++ b/stm-unity/Assets/Resources/Localization/SUGAR Unity Localization.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="SUGARLocalizations" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="119">
   <si>
     <t>Key</t>
   </si>
@@ -31,9 +31,6 @@
     <t>Error: Unable to gather current achievement progress.</t>
   </si>
   <si>
-    <t>XXXX</t>
-  </si>
-  <si>
     <t>ACHIEVEMENTS</t>
   </si>
   <si>
@@ -278,6 +275,128 @@
   </si>
   <si>
     <t>Precedente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Errore: Impossibile recuperare l'andamento dei risultati </t>
+  </si>
+  <si>
+    <t>Chiudi</t>
+  </si>
+  <si>
+    <t>Combinato</t>
+  </si>
+  <si>
+    <t>Amici</t>
+  </si>
+  <si>
+    <t>Lista degli amici</t>
+  </si>
+  <si>
+    <t>Errore: Impossibile recuperare la lista degli utenti</t>
+  </si>
+  <si>
+    <t>Richieste di amicizia</t>
+  </si>
+  <si>
+    <t>Richieste di amicizia inviate</t>
+  </si>
+  <si>
+    <t>Gruppo</t>
+  </si>
+  <si>
+    <t>Lista di gruppo</t>
+  </si>
+  <si>
+    <t>Gruppi</t>
+  </si>
+  <si>
+    <t>Errore: Impossibile recuperare la lista dei gruppi</t>
+  </si>
+  <si>
+    <t>Errore: Impossibile recuperare la lista dei membri del gruppo</t>
+  </si>
+  <si>
+    <t>Richieste di gruppo</t>
+  </si>
+  <si>
+    <t>Errore: Impossibile recuperare le classifiche per questo gioco</t>
+  </si>
+  <si>
+    <t>Errore: Impossibile recuperare i risultati comparativi per questa classifica</t>
+  </si>
+  <si>
+    <t>Vicino</t>
+  </si>
+  <si>
+    <t>Nelle vicinanze</t>
+  </si>
+  <si>
+    <t>Al momento nessun risultato disponibile per questo gioco</t>
+  </si>
+  <si>
+    <t>Al momento nessun risultato comparativo per questa classifica in base al filtro selezionato</t>
+  </si>
+  <si>
+    <t>Nessuna classifica al momento disponibile per questo gioco in base al filtro selezionato</t>
+  </si>
+  <si>
+    <t>Nessun risultato trovato</t>
+  </si>
+  <si>
+    <t>Errore: Al momento nessun utente attivo</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">Pagina </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>{0}</t>
+    </r>
+  </si>
+  <si>
+    <t>Richieste inviate</t>
+  </si>
+  <si>
+    <t>Registrati</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">Errore di registrazione </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>{0}</t>
+    </r>
+  </si>
+  <si>
+    <t>Cerca</t>
+  </si>
+  <si>
+    <t>Accedi</t>
+  </si>
+  <si>
+    <t>Torna su</t>
+  </si>
+  <si>
+    <t>Utente</t>
+  </si>
+  <si>
+    <t>Punteggio</t>
   </si>
 </sst>
 </file>
@@ -643,13 +762,14 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B41" sqref="B41"/>
+      <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="33.7109375" customWidth="1"/>
     <col min="2" max="2" width="58" customWidth="1"/>
+    <col min="3" max="3" width="76.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -670,437 +790,437 @@
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
+      <c r="C2" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="C3" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
+      <c r="C4" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>5</v>
+      <c r="C5" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>5</v>
+      <c r="C6" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>5</v>
+      <c r="C7" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>5</v>
+      <c r="C8" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>5</v>
+      <c r="C9" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>5</v>
+      <c r="C10" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>5</v>
+      <c r="C11" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>5</v>
+      <c r="C12" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>5</v>
+      <c r="C13" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>5</v>
+      <c r="C14" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>5</v>
+        <v>82</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>5</v>
+      <c r="C16" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>5</v>
+      <c r="C17" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>5</v>
+      <c r="C18" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>5</v>
+      <c r="C21" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>5</v>
+      <c r="C22" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="C23" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>5</v>
+      <c r="C24" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>5</v>
+      <c r="C25" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>5</v>
+      <c r="C26" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>5</v>
+      <c r="C27" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>5</v>
+      <c r="C28" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>42</v>
+      <c r="C29" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>5</v>
+      <c r="C30" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>5</v>
+      <c r="C31" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="C32" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="C33" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>5</v>
+      <c r="C34" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>42</v>
+      <c r="C35" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>5</v>
+      <c r="C36" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>5</v>
+      <c r="C37" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>5</v>
+      <c r="C38" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>5</v>
+      <c r="C39" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>5</v>
+      <c r="C40" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>5</v>
+      <c r="C41" s="1" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
